--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3946383.288637057</v>
+        <v>3942050.803816366</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>388.8048048937589</v>
+        <v>24.07512679590626</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>80.30846669433845</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>75.30729779173546</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>82.59930608814295</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>68.43141783824916</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.82466560786631</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>78.4090480048215</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>186.2507170030322</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.5268783873321</v>
       </c>
       <c r="C10" t="n">
-        <v>134.9198292231115</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695479</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.96996784159862</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>141.383131826302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>116.6320338128956</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>148.1185786361432</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>67.97896981790608</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.90335196317894</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>63.69463930750938</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>145.2857567969035</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976.0491016702019</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C2" t="n">
-        <v>607.0865847297903</v>
+        <v>829.2607436694175</v>
       </c>
       <c r="D2" t="n">
-        <v>607.0865847297903</v>
+        <v>470.995045062667</v>
       </c>
       <c r="E2" t="n">
-        <v>607.0865847297903</v>
+        <v>85.20679246442273</v>
       </c>
       <c r="F2" t="n">
-        <v>600.1410839805868</v>
+        <v>78.26129171521926</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.0491016702019</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="3">
@@ -4418,13 +4418,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240418</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240418</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1112.426648284105</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>882.5351523994505</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>464.5713442976373</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>137.3766243336402</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1112.426648284105</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610022</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>438.9553738610022</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>512.2786438284563</v>
+        <v>631.9064409481889</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>262.9439240077772</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1782.111371249202</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1408.645612988122</v>
       </c>
       <c r="Y8" t="n">
-        <v>898.8784838925781</v>
+        <v>1018.506281012311</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014718</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035062</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649891</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.4444960005474</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>337.1618402196266</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>337.1618402196266</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5369,13 +5369,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5606,16 +5606,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,28 +5746,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>733.4550657171301</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>583.3384263047943</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>435.4253327224012</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>435.4253327224012</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6308,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6609,13 +6609,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>916.3099000622261</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>766.1932606498904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>618.2801670674972</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>471.3902195695869</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>304.1941202844668</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>162.4822891266649</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,19 +7013,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>545.3854261579752</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>397.4723325755821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>250.5823850776717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7256,25 +7256,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3200.825397924057</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>3031.88921499615</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>2881.772575583814</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>2733.859482001421</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>2586.969534503511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4443.640298550963</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>4154.565071895161</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>3899.880583689274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>3610.463413652314</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>3382.473862754297</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>3382.473862754297</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2897.617548589219</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>2728.681365661313</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>2728.681365661313</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4361.225028359656</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>4072.149801703854</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3817.465313497967</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3528.048143461006</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3300.058592562989</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>3079.266013419459</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270185</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951775</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>205.6146855104962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>48.89210447937326</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.46607471595161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>143.6212754172151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>13.28686650065946</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>150.6207863290899</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>153.7108110197789</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>72.11969353038478</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>629808.2225148411</v>
+        <v>629808.222514841</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>629808.2225148411</v>
+        <v>629808.222514841</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>629808.2225148411</v>
+        <v>629808.222514841</v>
       </c>
     </row>
     <row r="13">
@@ -26316,46 +26316,46 @@
         <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="I2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="O2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977554</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.407704980418203e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577086</v>
       </c>
       <c r="F3" t="n">
-        <v>3.462874942095201e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670461</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670485</v>
+        <v>5067.592601670477</v>
       </c>
       <c r="G4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670454</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="K4" t="n">
         <v>5067.592601670438</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
@@ -26456,10 +26456,10 @@
         <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="P4" t="n">
         <v>5067.592601670437</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5067.592601670438</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73375.73758800924</v>
+        <v>-73375.73758800913</v>
       </c>
       <c r="C6" t="n">
-        <v>516592.1416265352</v>
+        <v>516592.1416265353</v>
       </c>
       <c r="D6" t="n">
-        <v>516592.1416265352</v>
+        <v>516592.1416265355</v>
       </c>
       <c r="E6" t="n">
-        <v>-263594.9654855305</v>
+        <v>-263942.3447398875</v>
       </c>
       <c r="F6" t="n">
-        <v>680777.812272178</v>
+        <v>680430.4330178214</v>
       </c>
       <c r="G6" t="n">
-        <v>680777.8122721782</v>
+        <v>680430.4330178213</v>
       </c>
       <c r="H6" t="n">
-        <v>680777.8122721782</v>
+        <v>680430.4330178215</v>
       </c>
       <c r="I6" t="n">
-        <v>680777.8122721782</v>
+        <v>680430.4330178214</v>
       </c>
       <c r="J6" t="n">
-        <v>504354.5930795856</v>
+        <v>504007.2138252281</v>
       </c>
       <c r="K6" t="n">
-        <v>680777.8122721784</v>
+        <v>680430.4330178215</v>
       </c>
       <c r="L6" t="n">
-        <v>680777.8122721784</v>
+        <v>680430.4330178215</v>
       </c>
       <c r="M6" t="n">
-        <v>556569.30156412</v>
+        <v>556221.9223097631</v>
       </c>
       <c r="N6" t="n">
-        <v>680777.8122721784</v>
+        <v>680430.4330178213</v>
       </c>
       <c r="O6" t="n">
-        <v>680777.8122721782</v>
+        <v>680430.4330178217</v>
       </c>
       <c r="P6" t="n">
-        <v>680777.8122721781</v>
+        <v>680430.4330178209</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>3.250528837155401e-14</v>
       </c>
-      <c r="F2" t="n">
-        <v>7.579122514774402e-14</v>
-      </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.328593677619001e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,11 +26916,11 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>3.250528837155401e-14</v>
       </c>
-      <c r="F2" t="n">
-        <v>4.328593677619001e-14</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245869</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,11 +27153,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.250528837155401e-14</v>
       </c>
-      <c r="K2" t="n">
-        <v>4.328593677619001e-14</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>24.97936512703609</v>
+        <v>389.7090432248887</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>131.8370722556805</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.9453835684542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>289.9655939792721</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>69.3320101567183</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>80.1840551799632</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>202.6983327287247</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>286.8638437661861</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>168.4323246176508</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946052</v>
       </c>
       <c r="C10" t="n">
-        <v>32.32699187551628</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.194312413142801e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28803,10 +28803,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28866,10 +28866,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32338,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32554,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,22 +33733,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33976,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,13 +34450,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35986,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3942050.803816366</v>
+        <v>3943811.33411915</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>24.07512679590626</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3.602837505177126</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>80.30846669433845</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>367.2711110280686</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>82.59930608814295</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.82466560786631</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>142.6271181085172</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>186.2507170030322</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>193.1267627447422</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.5268783873321</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>8.389005322401447</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576171</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>100.1755269486898</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>63.16281301712667</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>244.6418937426531</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1198.223260609829</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C2" t="n">
-        <v>829.2607436694175</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>470.995045062667</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>85.20679246442273</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>78.26129171521926</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2693.509861215013</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2693.509861215013</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2693.509861215013</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2340.741205944899</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>2340.741205944899</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.823100673951</v>
+        <v>2340.741205944899</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.8626623130036</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.48357412947</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1293.521057189058</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D5" t="n">
-        <v>1293.521057189058</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="E5" t="n">
-        <v>1293.521057189058</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="F5" t="n">
-        <v>882.5351523994505</v>
+        <v>424.9239020507368</v>
       </c>
       <c r="G5" t="n">
-        <v>464.5713442976373</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>137.3766243336402</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551153</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>631.9064409481889</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C8" t="n">
-        <v>262.9439240077772</v>
+        <v>262.9439240077758</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097704</v>
+        <v>262.9439240077758</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097704</v>
+        <v>262.9439240077758</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519316</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249202</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988122</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.506281012311</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014718</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035062</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.060406649891</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064349</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064349</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5062,13 +5062,13 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190824</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1876.273679552237</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1621.58919134635</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,31 +5296,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,19 +5530,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5606,10 +5606,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,22 +5746,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355936</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6080,10 +6080,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111712</v>
@@ -6308,13 +6308,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6375,10 +6375,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6794,10 +6794,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="35">
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6952,13 +6952,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7119,22 +7119,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
         <v>974.1018203925706</v>
@@ -7165,13 +7165,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7180,7 +7180,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270185</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951775</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>186.0089474405544</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>116.6691671648106</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>41.54258064659103</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="I2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977554</v>
+        <v>786967.9346977563</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.407704980418203e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577086</v>
+        <v>944372.7777577094</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>5067.59260167039</v>
+      </c>
+      <c r="F4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="F4" t="n">
-        <v>5067.592601670477</v>
-      </c>
       <c r="G4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670381</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
@@ -26456,7 +26456,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73375.73758800913</v>
+        <v>-73375.73758800924</v>
       </c>
       <c r="C6" t="n">
         <v>516592.1416265353</v>
       </c>
       <c r="D6" t="n">
-        <v>516592.1416265355</v>
+        <v>516592.1416265353</v>
       </c>
       <c r="E6" t="n">
-        <v>-263942.3447398875</v>
+        <v>-263629.703410967</v>
       </c>
       <c r="F6" t="n">
-        <v>680430.4330178214</v>
+        <v>680743.0743467433</v>
       </c>
       <c r="G6" t="n">
-        <v>680430.4330178213</v>
+        <v>680743.0743467426</v>
       </c>
       <c r="H6" t="n">
-        <v>680430.4330178215</v>
+        <v>680743.0743467427</v>
       </c>
       <c r="I6" t="n">
-        <v>680430.4330178214</v>
+        <v>680743.0743467427</v>
       </c>
       <c r="J6" t="n">
-        <v>504007.2138252281</v>
+        <v>504319.8551541497</v>
       </c>
       <c r="K6" t="n">
-        <v>680430.4330178215</v>
+        <v>680743.0743467424</v>
       </c>
       <c r="L6" t="n">
-        <v>680430.4330178215</v>
+        <v>680743.0743467429</v>
       </c>
       <c r="M6" t="n">
-        <v>556221.9223097631</v>
+        <v>556534.5636386841</v>
       </c>
       <c r="N6" t="n">
-        <v>680430.4330178213</v>
+        <v>680743.0743467427</v>
       </c>
       <c r="O6" t="n">
-        <v>680430.4330178217</v>
+        <v>680743.0743467425</v>
       </c>
       <c r="P6" t="n">
-        <v>680430.4330178209</v>
+        <v>680743.0743467432</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26715,10 +26715,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,16 +26795,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245869</v>
+        <v>990.2318361245876</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450924</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450932</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450924</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>389.7090432248887</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>212.8454828524807</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>131.8370722556805</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>46.51305899272637</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>69.3320101567183</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6983327287247</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>75.95753524357761</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>168.4323246176508</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>213.7492829969692</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.3051017946052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>20.73374463251287</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>8.769894134013742e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496626</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,7 +33037,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,10 +34219,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34444,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>208.6096528357818</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663293</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,7 +36685,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,10 +37867,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>66.47561891376348</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
